--- a/Code/Results/Cases/Case_3_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005634394337612</v>
+        <v>1.038937967464187</v>
       </c>
       <c r="D2">
-        <v>1.026050867391448</v>
+        <v>1.046162500309767</v>
       </c>
       <c r="E2">
-        <v>1.020738215810328</v>
+        <v>1.047375584475634</v>
       </c>
       <c r="F2">
-        <v>1.030489373627149</v>
+        <v>1.057893531192926</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045388506474884</v>
+        <v>1.035640922432004</v>
       </c>
       <c r="J2">
-        <v>1.02764787780146</v>
+        <v>1.044032693845849</v>
       </c>
       <c r="K2">
-        <v>1.037158821046297</v>
+        <v>1.048928708558647</v>
       </c>
       <c r="L2">
-        <v>1.031916001236343</v>
+        <v>1.050138396932887</v>
       </c>
       <c r="M2">
-        <v>1.041539676459372</v>
+        <v>1.060627254425254</v>
       </c>
       <c r="N2">
-        <v>1.029107255660801</v>
+        <v>1.045515340023334</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010307223251637</v>
+        <v>1.039937040499387</v>
       </c>
       <c r="D3">
-        <v>1.029588527729134</v>
+        <v>1.046938383800776</v>
       </c>
       <c r="E3">
-        <v>1.024620770309414</v>
+        <v>1.048256700037881</v>
       </c>
       <c r="F3">
-        <v>1.034669107843846</v>
+        <v>1.05884240883902</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046422385173446</v>
+        <v>1.035796980430403</v>
       </c>
       <c r="J3">
-        <v>1.030520793029069</v>
+        <v>1.044676517946861</v>
       </c>
       <c r="K3">
-        <v>1.039856313721332</v>
+        <v>1.049516271783306</v>
       </c>
       <c r="L3">
-        <v>1.034948025145236</v>
+        <v>1.050831164369094</v>
       </c>
       <c r="M3">
-        <v>1.044876805664034</v>
+        <v>1.061389715462832</v>
       </c>
       <c r="N3">
-        <v>1.031984250757558</v>
+        <v>1.046160078428417</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013270110653571</v>
+        <v>1.040584035743644</v>
       </c>
       <c r="D4">
-        <v>1.031833705069088</v>
+        <v>1.047440678817488</v>
       </c>
       <c r="E4">
-        <v>1.02708848209916</v>
+        <v>1.048827650595713</v>
       </c>
       <c r="F4">
-        <v>1.037325088881416</v>
+        <v>1.059457211112308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047067149575099</v>
+        <v>1.035896677779639</v>
       </c>
       <c r="J4">
-        <v>1.032340350922375</v>
+        <v>1.045093043218389</v>
       </c>
       <c r="K4">
-        <v>1.041562526459624</v>
+        <v>1.049896051391723</v>
       </c>
       <c r="L4">
-        <v>1.036870606502352</v>
+        <v>1.051279602522668</v>
       </c>
       <c r="M4">
-        <v>1.046992973893525</v>
+        <v>1.061883267275403</v>
       </c>
       <c r="N4">
-        <v>1.033806392631779</v>
+        <v>1.046577195213607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014501691991604</v>
+        <v>1.040856158237041</v>
       </c>
       <c r="D5">
-        <v>1.032767390861564</v>
+        <v>1.047651901359809</v>
       </c>
       <c r="E5">
-        <v>1.028115605195645</v>
+        <v>1.049067870872316</v>
       </c>
       <c r="F5">
-        <v>1.038430427577963</v>
+        <v>1.059715867805255</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047332527377484</v>
+        <v>1.035938282980436</v>
       </c>
       <c r="J5">
-        <v>1.033096152900691</v>
+        <v>1.045268132333039</v>
       </c>
       <c r="K5">
-        <v>1.04227069355397</v>
+        <v>1.050055610852918</v>
       </c>
       <c r="L5">
-        <v>1.037669740911105</v>
+        <v>1.051468165949756</v>
       </c>
       <c r="M5">
-        <v>1.047872599927212</v>
+        <v>1.062090800476773</v>
       </c>
       <c r="N5">
-        <v>1.034563267935595</v>
+        <v>1.046752532974882</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01470767278774</v>
+        <v>1.040901856149912</v>
       </c>
       <c r="D6">
-        <v>1.032923572734419</v>
+        <v>1.04768736990089</v>
       </c>
       <c r="E6">
-        <v>1.02828746980279</v>
+        <v>1.04910821617606</v>
       </c>
       <c r="F6">
-        <v>1.038615371103884</v>
+        <v>1.059759308730152</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047376755656503</v>
+        <v>1.03594525062631</v>
       </c>
       <c r="J6">
-        <v>1.033222527696679</v>
+        <v>1.045297529478349</v>
       </c>
       <c r="K6">
-        <v>1.042389070470228</v>
+        <v>1.050082395702346</v>
       </c>
       <c r="L6">
-        <v>1.037803392802334</v>
+        <v>1.05149982889759</v>
       </c>
       <c r="M6">
-        <v>1.048019715131739</v>
+        <v>1.062125648763353</v>
       </c>
       <c r="N6">
-        <v>1.034689822198289</v>
+        <v>1.046781971867511</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013286621501396</v>
+        <v>1.040587671364767</v>
       </c>
       <c r="D7">
-        <v>1.031846220626347</v>
+        <v>1.047443500958279</v>
       </c>
       <c r="E7">
-        <v>1.027102246580585</v>
+        <v>1.048830859675308</v>
       </c>
       <c r="F7">
-        <v>1.0373399021087</v>
+        <v>1.059460666535747</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047070717736682</v>
+        <v>1.035897234919517</v>
       </c>
       <c r="J7">
-        <v>1.032350485519707</v>
+        <v>1.045095382839967</v>
       </c>
       <c r="K7">
-        <v>1.041572024527577</v>
+        <v>1.049898183826782</v>
       </c>
       <c r="L7">
-        <v>1.036881320019541</v>
+        <v>1.05128212196036</v>
       </c>
       <c r="M7">
-        <v>1.047004766415943</v>
+        <v>1.061886040172631</v>
       </c>
       <c r="N7">
-        <v>1.0338165416214</v>
+        <v>1.046579538157716</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007226501728723</v>
+        <v>1.039275499054269</v>
       </c>
       <c r="D8">
-        <v>1.027255734550815</v>
+        <v>1.046424661944442</v>
       </c>
       <c r="E8">
-        <v>1.022059795207847</v>
+        <v>1.04767319318096</v>
       </c>
       <c r="F8">
-        <v>1.031912239039464</v>
+        <v>1.058214039310426</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045742999528769</v>
+        <v>1.035693928232352</v>
       </c>
       <c r="J8">
-        <v>1.028627135293029</v>
+        <v>1.044250291588846</v>
       </c>
       <c r="K8">
-        <v>1.038078744616713</v>
+        <v>1.04912736323708</v>
       </c>
       <c r="L8">
-        <v>1.032949018720633</v>
+        <v>1.050372484872463</v>
       </c>
       <c r="M8">
-        <v>1.042676616275068</v>
+        <v>1.060884891993208</v>
       </c>
       <c r="N8">
-        <v>1.030087903810327</v>
+        <v>1.045733246780084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9960575150486939</v>
+        <v>1.036967362378973</v>
       </c>
       <c r="D9">
-        <v>1.018814675365388</v>
+        <v>1.044631282742129</v>
       </c>
       <c r="E9">
-        <v>1.012815751682175</v>
+        <v>1.045639493486098</v>
       </c>
       <c r="F9">
-        <v>1.021957098774154</v>
+        <v>1.056023621706351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043212228409752</v>
+        <v>1.035325874907272</v>
       </c>
       <c r="J9">
-        <v>1.021750264902437</v>
+        <v>1.042760620361176</v>
       </c>
       <c r="K9">
-        <v>1.031609698598757</v>
+        <v>1.047765958877243</v>
       </c>
       <c r="L9">
-        <v>1.025704268753031</v>
+        <v>1.048770943347183</v>
       </c>
       <c r="M9">
-        <v>1.034703706055147</v>
+        <v>1.059122234220325</v>
       </c>
       <c r="N9">
-        <v>1.023201267474992</v>
+        <v>1.044241460048404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9882445581716398</v>
+        <v>1.035431390097419</v>
       </c>
       <c r="D10">
-        <v>1.012927417613505</v>
+        <v>1.04343708094505</v>
       </c>
       <c r="E10">
-        <v>1.006386237157035</v>
+        <v>1.044287972053659</v>
       </c>
       <c r="F10">
-        <v>1.015029617967168</v>
+        <v>1.054567654148566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041388120198203</v>
+        <v>1.035073946131218</v>
       </c>
       <c r="J10">
-        <v>1.016932469312902</v>
+        <v>1.041767213000594</v>
       </c>
       <c r="K10">
-        <v>1.027067121525164</v>
+        <v>1.046856316463798</v>
       </c>
       <c r="L10">
-        <v>1.020641135573851</v>
+        <v>1.047704217703067</v>
       </c>
       <c r="M10">
-        <v>1.029132708778395</v>
+        <v>1.057948198507832</v>
       </c>
       <c r="N10">
-        <v>1.018376630063111</v>
+        <v>1.043246641935424</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9847653610325028</v>
+        <v>1.034766966413533</v>
       </c>
       <c r="D11">
-        <v>1.010310927545907</v>
+        <v>1.042920322578555</v>
       </c>
       <c r="E11">
-        <v>1.003532690434349</v>
+        <v>1.043703777967774</v>
       </c>
       <c r="F11">
-        <v>1.011954250995905</v>
+        <v>1.053938242267599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040563745421119</v>
+        <v>1.03496330840948</v>
       </c>
       <c r="J11">
-        <v>1.014785945632193</v>
+        <v>1.041336997628168</v>
       </c>
       <c r="K11">
-        <v>1.02504097972884</v>
+        <v>1.046461959520907</v>
       </c>
       <c r="L11">
-        <v>1.018388291484301</v>
+        <v>1.047242555332062</v>
       </c>
       <c r="M11">
-        <v>1.026654194759529</v>
+        <v>1.057440095261193</v>
       </c>
       <c r="N11">
-        <v>1.016227058072565</v>
+        <v>1.042815815607823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9834577531450912</v>
+        <v>1.03452027002392</v>
       </c>
       <c r="D12">
-        <v>1.009328425786894</v>
+        <v>1.04272842767217</v>
       </c>
       <c r="E12">
-        <v>1.002461740401327</v>
+        <v>1.043486937224449</v>
       </c>
       <c r="F12">
-        <v>1.010799927662989</v>
+        <v>1.053704606895936</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040252161139393</v>
+        <v>1.034921980091536</v>
       </c>
       <c r="J12">
-        <v>1.013979093957836</v>
+        <v>1.041177187761428</v>
       </c>
       <c r="K12">
-        <v>1.024279063816025</v>
+        <v>1.046315407241881</v>
       </c>
       <c r="L12">
-        <v>1.017541928835426</v>
+        <v>1.047071109877869</v>
       </c>
       <c r="M12">
-        <v>1.025723102377876</v>
+        <v>1.05725140350021</v>
       </c>
       <c r="N12">
-        <v>1.015419060576283</v>
+        <v>1.042655778792742</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9837389449791033</v>
+        <v>1.034573182694838</v>
       </c>
       <c r="D13">
-        <v>1.009539665014392</v>
+        <v>1.042769587400675</v>
       </c>
       <c r="E13">
-        <v>1.002691970895313</v>
+        <v>1.043533443269381</v>
       </c>
       <c r="F13">
-        <v>1.011048087142916</v>
+        <v>1.053754715386999</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040319243409365</v>
+        <v>1.03493085567159</v>
       </c>
       <c r="J13">
-        <v>1.014152605783095</v>
+        <v>1.04121146790204</v>
       </c>
       <c r="K13">
-        <v>1.024442926131926</v>
+        <v>1.046346846380917</v>
       </c>
       <c r="L13">
-        <v>1.017723916843205</v>
+        <v>1.047107883843049</v>
       </c>
       <c r="M13">
-        <v>1.02592330686911</v>
+        <v>1.05729187667803</v>
       </c>
       <c r="N13">
-        <v>1.015592818808237</v>
+        <v>1.042690107615086</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9846575904946561</v>
+        <v>1.034746572366348</v>
       </c>
       <c r="D14">
-        <v>1.010229933405441</v>
+        <v>1.042904459414494</v>
       </c>
       <c r="E14">
-        <v>1.003444393525027</v>
+        <v>1.043685850676584</v>
       </c>
       <c r="F14">
-        <v>1.011859082693333</v>
+        <v>1.05391892670084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040538100544637</v>
+        <v>1.034959896938928</v>
       </c>
       <c r="J14">
-        <v>1.014719448380423</v>
+        <v>1.041323787867982</v>
       </c>
       <c r="K14">
-        <v>1.024978192147053</v>
+        <v>1.046449846897669</v>
       </c>
       <c r="L14">
-        <v>1.01831852866038</v>
+        <v>1.047228382847311</v>
       </c>
       <c r="M14">
-        <v>1.026577446871096</v>
+        <v>1.057424497110973</v>
       </c>
       <c r="N14">
-        <v>1.01616046638707</v>
+        <v>1.042802587088262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9852215476533811</v>
+        <v>1.034853416755182</v>
       </c>
       <c r="D15">
-        <v>1.010653807194545</v>
+        <v>1.042987565462432</v>
       </c>
       <c r="E15">
-        <v>1.003906508525738</v>
+        <v>1.043779774477675</v>
       </c>
       <c r="F15">
-        <v>1.012357155127186</v>
+        <v>1.054020123449086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040672227593054</v>
+        <v>1.03497775942203</v>
       </c>
       <c r="J15">
-        <v>1.015067420585962</v>
+        <v>1.041392990774451</v>
       </c>
       <c r="K15">
-        <v>1.025306739414616</v>
+        <v>1.046513299594482</v>
       </c>
       <c r="L15">
-        <v>1.01868360773159</v>
+        <v>1.047302631125693</v>
       </c>
       <c r="M15">
-        <v>1.026979081935984</v>
+        <v>1.057506214322662</v>
       </c>
       <c r="N15">
-        <v>1.016508932753055</v>
+        <v>1.042871888270796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.988473365577225</v>
+        <v>1.035475499719319</v>
       </c>
       <c r="D16">
-        <v>1.013099605045033</v>
+        <v>1.043471383742267</v>
       </c>
       <c r="E16">
-        <v>1.006574105042485</v>
+        <v>1.044326764756925</v>
       </c>
       <c r="F16">
-        <v>1.01523207270957</v>
+        <v>1.054609447983217</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041442088111784</v>
+        <v>1.035081256156271</v>
       </c>
       <c r="J16">
-        <v>1.017073615805778</v>
+        <v>1.04179576371048</v>
       </c>
       <c r="K16">
-        <v>1.027200307408496</v>
+        <v>1.046882478690482</v>
       </c>
       <c r="L16">
-        <v>1.020789335872704</v>
+        <v>1.047734861783185</v>
       </c>
       <c r="M16">
-        <v>1.029295761280525</v>
+        <v>1.057981925255877</v>
       </c>
       <c r="N16">
-        <v>1.018517977000196</v>
+        <v>1.043275233190593</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9904868353826791</v>
+        <v>1.035865893723285</v>
       </c>
       <c r="D17">
-        <v>1.014615427306074</v>
+        <v>1.04377496177689</v>
       </c>
       <c r="E17">
-        <v>1.008228413503075</v>
+        <v>1.044670152180366</v>
       </c>
       <c r="F17">
-        <v>1.017014735859177</v>
+        <v>1.054979392769639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041915629619816</v>
+        <v>1.035145762030099</v>
       </c>
       <c r="J17">
-        <v>1.01831556379453</v>
+        <v>1.042048396119767</v>
       </c>
       <c r="K17">
-        <v>1.028371957793277</v>
+        <v>1.047113928260277</v>
       </c>
       <c r="L17">
-        <v>1.022093690784811</v>
+        <v>1.048006052720761</v>
       </c>
       <c r="M17">
-        <v>1.030730870172488</v>
+        <v>1.058280397032999</v>
       </c>
       <c r="N17">
-        <v>1.019761688697546</v>
+        <v>1.043528224366879</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9916520421480253</v>
+        <v>1.036093667815484</v>
       </c>
       <c r="D18">
-        <v>1.01549312688828</v>
+        <v>1.043952066323058</v>
       </c>
       <c r="E18">
-        <v>1.009186676062798</v>
+        <v>1.044870542940436</v>
       </c>
       <c r="F18">
-        <v>1.018047270989068</v>
+        <v>1.055195274764312</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04218852068909</v>
+        <v>1.03518323754453</v>
       </c>
       <c r="J18">
-        <v>1.019034177697122</v>
+        <v>1.042195746155598</v>
       </c>
       <c r="K18">
-        <v>1.02904968231635</v>
+        <v>1.047248882910817</v>
       </c>
       <c r="L18">
-        <v>1.022848697522053</v>
+        <v>1.048164256599525</v>
       </c>
       <c r="M18">
-        <v>1.031561590453713</v>
+        <v>1.058454515776056</v>
       </c>
       <c r="N18">
-        <v>1.020481323114306</v>
+        <v>1.043675783656661</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9920478087419344</v>
+        <v>1.036171343710045</v>
       </c>
       <c r="D19">
-        <v>1.015791320127439</v>
+        <v>1.044012459890654</v>
       </c>
       <c r="E19">
-        <v>1.009512304586717</v>
+        <v>1.044938887714421</v>
       </c>
       <c r="F19">
-        <v>1.018398125107605</v>
+        <v>1.055268901778383</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042281012250002</v>
+        <v>1.035195990325728</v>
       </c>
       <c r="J19">
-        <v>1.019278237404469</v>
+        <v>1.042245987638139</v>
       </c>
       <c r="K19">
-        <v>1.029279818014916</v>
+        <v>1.04729489113397</v>
       </c>
       <c r="L19">
-        <v>1.023105165048577</v>
+        <v>1.048218203872003</v>
       </c>
       <c r="M19">
-        <v>1.031843781718258</v>
+        <v>1.058513890011096</v>
       </c>
       <c r="N19">
-        <v>1.020725729414431</v>
+        <v>1.043726096487871</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9902717682429359</v>
+        <v>1.035824001529892</v>
       </c>
       <c r="D20">
-        <v>1.014453465087272</v>
+        <v>1.043742387344296</v>
       </c>
       <c r="E20">
-        <v>1.008051615519277</v>
+        <v>1.044633299743653</v>
       </c>
       <c r="F20">
-        <v>1.016824228467475</v>
+        <v>1.054939690898694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04186516757774</v>
+        <v>1.035138856638073</v>
       </c>
       <c r="J20">
-        <v>1.018182917018435</v>
+        <v>1.042021291685913</v>
       </c>
       <c r="K20">
-        <v>1.028246841220603</v>
+        <v>1.047089100659777</v>
       </c>
       <c r="L20">
-        <v>1.021954349211842</v>
+        <v>1.047976954135426</v>
       </c>
       <c r="M20">
-        <v>1.030577557421439</v>
+        <v>1.058248371221308</v>
       </c>
       <c r="N20">
-        <v>1.019628853547815</v>
+        <v>1.043501081441619</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9843875010846146</v>
+        <v>1.034695510660037</v>
       </c>
       <c r="D21">
-        <v>1.010026964065291</v>
+        <v>1.042864741518164</v>
       </c>
       <c r="E21">
-        <v>1.003223132680762</v>
+        <v>1.043640966207039</v>
       </c>
       <c r="F21">
-        <v>1.011620601023621</v>
+        <v>1.053870566239321</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040473802519477</v>
+        <v>1.034951351425102</v>
       </c>
       <c r="J21">
-        <v>1.014552794534665</v>
+        <v>1.041290712671793</v>
       </c>
       <c r="K21">
-        <v>1.024820830402871</v>
+        <v>1.046419517752819</v>
       </c>
       <c r="L21">
-        <v>1.018143698037461</v>
+        <v>1.04719289787879</v>
       </c>
       <c r="M21">
-        <v>1.026385112024577</v>
+        <v>1.05738544257504</v>
       </c>
       <c r="N21">
-        <v>1.015993575873736</v>
+        <v>1.042769464921501</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9805989690912775</v>
+        <v>1.033986563411151</v>
       </c>
       <c r="D22">
-        <v>1.007182117220604</v>
+        <v>1.042313233149078</v>
       </c>
       <c r="E22">
-        <v>1.000123228577263</v>
+        <v>1.043017943805545</v>
       </c>
       <c r="F22">
-        <v>1.008279135880898</v>
+        <v>1.053199269613719</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039567796332385</v>
+        <v>1.034832114269901</v>
       </c>
       <c r="J22">
-        <v>1.012214958579968</v>
+        <v>1.040831318586783</v>
       </c>
       <c r="K22">
-        <v>1.022612625131064</v>
+        <v>1.045998116673392</v>
       </c>
       <c r="L22">
-        <v>1.015692244680694</v>
+        <v>1.046700142258775</v>
       </c>
       <c r="M22">
-        <v>1.023688346505255</v>
+        <v>1.056843119395739</v>
       </c>
       <c r="N22">
-        <v>1.013652419923831</v>
+        <v>1.042309418444198</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9826160597246389</v>
+        <v>1.034362334597838</v>
       </c>
       <c r="D23">
-        <v>1.00869625681101</v>
+        <v>1.042605569091199</v>
       </c>
       <c r="E23">
-        <v>1.001772818063757</v>
+        <v>1.043348134346576</v>
       </c>
       <c r="F23">
-        <v>1.010057338034357</v>
+        <v>1.053555050511741</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040051111003668</v>
+        <v>1.034895451494989</v>
       </c>
       <c r="J23">
-        <v>1.013459708052407</v>
+        <v>1.041074856558505</v>
       </c>
       <c r="K23">
-        <v>1.023788518198327</v>
+        <v>1.046221547696714</v>
       </c>
       <c r="L23">
-        <v>1.016997237396992</v>
+        <v>1.0469613409655</v>
       </c>
       <c r="M23">
-        <v>1.025123896851344</v>
+        <v>1.057130592613021</v>
       </c>
       <c r="N23">
-        <v>1.014898937083295</v>
+        <v>1.042553302267773</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9903689762453965</v>
+        <v>1.035842930611487</v>
       </c>
       <c r="D24">
-        <v>1.014526668749612</v>
+        <v>1.043757106227571</v>
       </c>
       <c r="E24">
-        <v>1.008131523481481</v>
+        <v>1.044649951468684</v>
       </c>
       <c r="F24">
-        <v>1.016910332954815</v>
+        <v>1.054957630158011</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041887979441333</v>
+        <v>1.035141977349981</v>
       </c>
       <c r="J24">
-        <v>1.018242872256209</v>
+        <v>1.042033539032001</v>
       </c>
       <c r="K24">
-        <v>1.028303393534069</v>
+        <v>1.047100319325851</v>
       </c>
       <c r="L24">
-        <v>1.022017329564733</v>
+        <v>1.047990102463244</v>
       </c>
       <c r="M24">
-        <v>1.030646852454481</v>
+        <v>1.058262842229275</v>
       </c>
       <c r="N24">
-        <v>1.019688893928903</v>
+        <v>1.043513346180344</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9990067582693221</v>
+        <v>1.03756358325987</v>
       </c>
       <c r="D25">
-        <v>1.021040908281635</v>
+        <v>1.045094675847541</v>
       </c>
       <c r="E25">
-        <v>1.015250602910858</v>
+        <v>1.046164504772883</v>
       </c>
       <c r="F25">
-        <v>1.024579830156624</v>
+        <v>1.056589142903641</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043889978063476</v>
+        <v>1.035422183920451</v>
       </c>
       <c r="J25">
-        <v>1.023567595257866</v>
+        <v>1.043145791525238</v>
       </c>
       <c r="K25">
-        <v>1.03332114160832</v>
+        <v>1.048118278277778</v>
       </c>
       <c r="L25">
-        <v>1.027616697552305</v>
+        <v>1.049184813693903</v>
       </c>
       <c r="M25">
-        <v>1.036808192974971</v>
+        <v>1.059577739803832</v>
       </c>
       <c r="N25">
-        <v>1.025021178647976</v>
+        <v>1.044627178199698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038937967464187</v>
+        <v>1.005634394337611</v>
       </c>
       <c r="D2">
-        <v>1.046162500309767</v>
+        <v>1.026050867391447</v>
       </c>
       <c r="E2">
-        <v>1.047375584475634</v>
+        <v>1.020738215810327</v>
       </c>
       <c r="F2">
-        <v>1.057893531192926</v>
+        <v>1.030489373627149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035640922432004</v>
+        <v>1.045388506474884</v>
       </c>
       <c r="J2">
-        <v>1.044032693845849</v>
+        <v>1.027647877801459</v>
       </c>
       <c r="K2">
-        <v>1.048928708558647</v>
+        <v>1.037158821046296</v>
       </c>
       <c r="L2">
-        <v>1.050138396932887</v>
+        <v>1.031916001236343</v>
       </c>
       <c r="M2">
-        <v>1.060627254425254</v>
+        <v>1.041539676459372</v>
       </c>
       <c r="N2">
-        <v>1.045515340023334</v>
+        <v>1.0291072556608</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039937040499387</v>
+        <v>1.010307223251637</v>
       </c>
       <c r="D3">
-        <v>1.046938383800776</v>
+        <v>1.029588527729133</v>
       </c>
       <c r="E3">
-        <v>1.048256700037881</v>
+        <v>1.024620770309413</v>
       </c>
       <c r="F3">
-        <v>1.05884240883902</v>
+        <v>1.034669107843845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035796980430403</v>
+        <v>1.046422385173446</v>
       </c>
       <c r="J3">
-        <v>1.044676517946861</v>
+        <v>1.030520793029068</v>
       </c>
       <c r="K3">
-        <v>1.049516271783306</v>
+        <v>1.039856313721331</v>
       </c>
       <c r="L3">
-        <v>1.050831164369094</v>
+        <v>1.034948025145235</v>
       </c>
       <c r="M3">
-        <v>1.061389715462832</v>
+        <v>1.044876805664033</v>
       </c>
       <c r="N3">
-        <v>1.046160078428417</v>
+        <v>1.031984250757557</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040584035743644</v>
+        <v>1.01327011065357</v>
       </c>
       <c r="D4">
-        <v>1.047440678817488</v>
+        <v>1.031833705069087</v>
       </c>
       <c r="E4">
-        <v>1.048827650595713</v>
+        <v>1.027088482099158</v>
       </c>
       <c r="F4">
-        <v>1.059457211112308</v>
+        <v>1.037325088881415</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035896677779639</v>
+        <v>1.047067149575098</v>
       </c>
       <c r="J4">
-        <v>1.045093043218389</v>
+        <v>1.032340350922375</v>
       </c>
       <c r="K4">
-        <v>1.049896051391723</v>
+        <v>1.041562526459623</v>
       </c>
       <c r="L4">
-        <v>1.051279602522668</v>
+        <v>1.03687060650235</v>
       </c>
       <c r="M4">
-        <v>1.061883267275403</v>
+        <v>1.046992973893524</v>
       </c>
       <c r="N4">
-        <v>1.046577195213607</v>
+        <v>1.033806392631778</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040856158237041</v>
+        <v>1.014501691991604</v>
       </c>
       <c r="D5">
-        <v>1.047651901359809</v>
+        <v>1.032767390861564</v>
       </c>
       <c r="E5">
-        <v>1.049067870872316</v>
+        <v>1.028115605195645</v>
       </c>
       <c r="F5">
-        <v>1.059715867805255</v>
+        <v>1.038430427577963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035938282980436</v>
+        <v>1.047332527377484</v>
       </c>
       <c r="J5">
-        <v>1.045268132333039</v>
+        <v>1.033096152900692</v>
       </c>
       <c r="K5">
-        <v>1.050055610852918</v>
+        <v>1.04227069355397</v>
       </c>
       <c r="L5">
-        <v>1.051468165949756</v>
+        <v>1.037669740911105</v>
       </c>
       <c r="M5">
-        <v>1.062090800476773</v>
+        <v>1.047872599927212</v>
       </c>
       <c r="N5">
-        <v>1.046752532974882</v>
+        <v>1.034563267935596</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040901856149912</v>
+        <v>1.014707672787741</v>
       </c>
       <c r="D6">
-        <v>1.04768736990089</v>
+        <v>1.032923572734419</v>
       </c>
       <c r="E6">
-        <v>1.04910821617606</v>
+        <v>1.028287469802791</v>
       </c>
       <c r="F6">
-        <v>1.059759308730152</v>
+        <v>1.038615371103886</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03594525062631</v>
+        <v>1.047376755656504</v>
       </c>
       <c r="J6">
-        <v>1.045297529478349</v>
+        <v>1.03322252769668</v>
       </c>
       <c r="K6">
-        <v>1.050082395702346</v>
+        <v>1.042389070470229</v>
       </c>
       <c r="L6">
-        <v>1.05149982889759</v>
+        <v>1.037803392802336</v>
       </c>
       <c r="M6">
-        <v>1.062125648763353</v>
+        <v>1.04801971513174</v>
       </c>
       <c r="N6">
-        <v>1.046781971867511</v>
+        <v>1.03468982219829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040587671364767</v>
+        <v>1.013286621501397</v>
       </c>
       <c r="D7">
-        <v>1.047443500958279</v>
+        <v>1.031846220626348</v>
       </c>
       <c r="E7">
-        <v>1.048830859675308</v>
+        <v>1.027102246580586</v>
       </c>
       <c r="F7">
-        <v>1.059460666535747</v>
+        <v>1.0373399021087</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035897234919517</v>
+        <v>1.047070717736683</v>
       </c>
       <c r="J7">
-        <v>1.045095382839967</v>
+        <v>1.032350485519708</v>
       </c>
       <c r="K7">
-        <v>1.049898183826782</v>
+        <v>1.041572024527579</v>
       </c>
       <c r="L7">
-        <v>1.05128212196036</v>
+        <v>1.036881320019542</v>
       </c>
       <c r="M7">
-        <v>1.061886040172631</v>
+        <v>1.047004766415943</v>
       </c>
       <c r="N7">
-        <v>1.046579538157716</v>
+        <v>1.033816541621401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039275499054269</v>
+        <v>1.007226501728723</v>
       </c>
       <c r="D8">
-        <v>1.046424661944442</v>
+        <v>1.027255734550816</v>
       </c>
       <c r="E8">
-        <v>1.04767319318096</v>
+        <v>1.022059795207847</v>
       </c>
       <c r="F8">
-        <v>1.058214039310426</v>
+        <v>1.031912239039465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035693928232352</v>
+        <v>1.045742999528769</v>
       </c>
       <c r="J8">
-        <v>1.044250291588846</v>
+        <v>1.02862713529303</v>
       </c>
       <c r="K8">
-        <v>1.04912736323708</v>
+        <v>1.038078744616714</v>
       </c>
       <c r="L8">
-        <v>1.050372484872463</v>
+        <v>1.032949018720633</v>
       </c>
       <c r="M8">
-        <v>1.060884891993208</v>
+        <v>1.042676616275069</v>
       </c>
       <c r="N8">
-        <v>1.045733246780084</v>
+        <v>1.030087903810328</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036967362378973</v>
+        <v>0.9960575150486938</v>
       </c>
       <c r="D9">
-        <v>1.044631282742129</v>
+        <v>1.018814675365388</v>
       </c>
       <c r="E9">
-        <v>1.045639493486098</v>
+        <v>1.012815751682175</v>
       </c>
       <c r="F9">
-        <v>1.056023621706351</v>
+        <v>1.021957098774154</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035325874907272</v>
+        <v>1.043212228409752</v>
       </c>
       <c r="J9">
-        <v>1.042760620361176</v>
+        <v>1.021750264902437</v>
       </c>
       <c r="K9">
-        <v>1.047765958877243</v>
+        <v>1.031609698598757</v>
       </c>
       <c r="L9">
-        <v>1.048770943347183</v>
+        <v>1.025704268753031</v>
       </c>
       <c r="M9">
-        <v>1.059122234220325</v>
+        <v>1.034703706055147</v>
       </c>
       <c r="N9">
-        <v>1.044241460048404</v>
+        <v>1.023201267474992</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035431390097419</v>
+        <v>0.9882445581716403</v>
       </c>
       <c r="D10">
-        <v>1.04343708094505</v>
+        <v>1.012927417613505</v>
       </c>
       <c r="E10">
-        <v>1.044287972053659</v>
+        <v>1.006386237157035</v>
       </c>
       <c r="F10">
-        <v>1.054567654148566</v>
+        <v>1.015029617967169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035073946131218</v>
+        <v>1.041388120198203</v>
       </c>
       <c r="J10">
-        <v>1.041767213000594</v>
+        <v>1.016932469312902</v>
       </c>
       <c r="K10">
-        <v>1.046856316463798</v>
+        <v>1.027067121525165</v>
       </c>
       <c r="L10">
-        <v>1.047704217703067</v>
+        <v>1.020641135573851</v>
       </c>
       <c r="M10">
-        <v>1.057948198507832</v>
+        <v>1.029132708778396</v>
       </c>
       <c r="N10">
-        <v>1.043246641935424</v>
+        <v>1.018376630063111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034766966413533</v>
+        <v>0.9847653610325027</v>
       </c>
       <c r="D11">
-        <v>1.042920322578555</v>
+        <v>1.010310927545907</v>
       </c>
       <c r="E11">
-        <v>1.043703777967774</v>
+        <v>1.003532690434349</v>
       </c>
       <c r="F11">
-        <v>1.053938242267599</v>
+        <v>1.011954250995906</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03496330840948</v>
+        <v>1.040563745421119</v>
       </c>
       <c r="J11">
-        <v>1.041336997628168</v>
+        <v>1.014785945632193</v>
       </c>
       <c r="K11">
-        <v>1.046461959520907</v>
+        <v>1.02504097972884</v>
       </c>
       <c r="L11">
-        <v>1.047242555332062</v>
+        <v>1.018388291484301</v>
       </c>
       <c r="M11">
-        <v>1.057440095261193</v>
+        <v>1.026654194759529</v>
       </c>
       <c r="N11">
-        <v>1.042815815607823</v>
+        <v>1.016227058072565</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03452027002392</v>
+        <v>0.9834577531450915</v>
       </c>
       <c r="D12">
-        <v>1.04272842767217</v>
+        <v>1.009328425786894</v>
       </c>
       <c r="E12">
-        <v>1.043486937224449</v>
+        <v>1.002461740401327</v>
       </c>
       <c r="F12">
-        <v>1.053704606895936</v>
+        <v>1.010799927662989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034921980091536</v>
+        <v>1.040252161139394</v>
       </c>
       <c r="J12">
-        <v>1.041177187761428</v>
+        <v>1.013979093957836</v>
       </c>
       <c r="K12">
-        <v>1.046315407241881</v>
+        <v>1.024279063816025</v>
       </c>
       <c r="L12">
-        <v>1.047071109877869</v>
+        <v>1.017541928835426</v>
       </c>
       <c r="M12">
-        <v>1.05725140350021</v>
+        <v>1.025723102377876</v>
       </c>
       <c r="N12">
-        <v>1.042655778792742</v>
+        <v>1.015419060576284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034573182694838</v>
+        <v>0.9837389449791043</v>
       </c>
       <c r="D13">
-        <v>1.042769587400675</v>
+        <v>1.009539665014394</v>
       </c>
       <c r="E13">
-        <v>1.043533443269381</v>
+        <v>1.002691970895313</v>
       </c>
       <c r="F13">
-        <v>1.053754715386999</v>
+        <v>1.011048087142917</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03493085567159</v>
+        <v>1.040319243409365</v>
       </c>
       <c r="J13">
-        <v>1.04121146790204</v>
+        <v>1.014152605783096</v>
       </c>
       <c r="K13">
-        <v>1.046346846380917</v>
+        <v>1.024442926131927</v>
       </c>
       <c r="L13">
-        <v>1.047107883843049</v>
+        <v>1.017723916843206</v>
       </c>
       <c r="M13">
-        <v>1.05729187667803</v>
+        <v>1.025923306869111</v>
       </c>
       <c r="N13">
-        <v>1.042690107615086</v>
+        <v>1.015592818808238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034746572366348</v>
+        <v>0.9846575904946552</v>
       </c>
       <c r="D14">
-        <v>1.042904459414494</v>
+        <v>1.01022993340544</v>
       </c>
       <c r="E14">
-        <v>1.043685850676584</v>
+        <v>1.003444393525027</v>
       </c>
       <c r="F14">
-        <v>1.05391892670084</v>
+        <v>1.011859082693332</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034959896938928</v>
+        <v>1.040538100544637</v>
       </c>
       <c r="J14">
-        <v>1.041323787867982</v>
+        <v>1.014719448380422</v>
       </c>
       <c r="K14">
-        <v>1.046449846897669</v>
+        <v>1.024978192147052</v>
       </c>
       <c r="L14">
-        <v>1.047228382847311</v>
+        <v>1.01831852866038</v>
       </c>
       <c r="M14">
-        <v>1.057424497110973</v>
+        <v>1.026577446871095</v>
       </c>
       <c r="N14">
-        <v>1.042802587088262</v>
+        <v>1.01616046638707</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034853416755182</v>
+        <v>0.9852215476533808</v>
       </c>
       <c r="D15">
-        <v>1.042987565462432</v>
+        <v>1.010653807194545</v>
       </c>
       <c r="E15">
-        <v>1.043779774477675</v>
+        <v>1.003906508525738</v>
       </c>
       <c r="F15">
-        <v>1.054020123449086</v>
+        <v>1.012357155127186</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03497775942203</v>
+        <v>1.040672227593054</v>
       </c>
       <c r="J15">
-        <v>1.041392990774451</v>
+        <v>1.015067420585961</v>
       </c>
       <c r="K15">
-        <v>1.046513299594482</v>
+        <v>1.025306739414616</v>
       </c>
       <c r="L15">
-        <v>1.047302631125693</v>
+        <v>1.01868360773159</v>
       </c>
       <c r="M15">
-        <v>1.057506214322662</v>
+        <v>1.026979081935984</v>
       </c>
       <c r="N15">
-        <v>1.042871888270796</v>
+        <v>1.016508932753054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035475499719319</v>
+        <v>0.9884733655772256</v>
       </c>
       <c r="D16">
-        <v>1.043471383742267</v>
+        <v>1.013099605045034</v>
       </c>
       <c r="E16">
-        <v>1.044326764756925</v>
+        <v>1.006574105042486</v>
       </c>
       <c r="F16">
-        <v>1.054609447983217</v>
+        <v>1.01523207270957</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035081256156271</v>
+        <v>1.041442088111784</v>
       </c>
       <c r="J16">
-        <v>1.04179576371048</v>
+        <v>1.017073615805779</v>
       </c>
       <c r="K16">
-        <v>1.046882478690482</v>
+        <v>1.027200307408497</v>
       </c>
       <c r="L16">
-        <v>1.047734861783185</v>
+        <v>1.020789335872705</v>
       </c>
       <c r="M16">
-        <v>1.057981925255877</v>
+        <v>1.029295761280526</v>
       </c>
       <c r="N16">
-        <v>1.043275233190593</v>
+        <v>1.018517977000197</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035865893723285</v>
+        <v>0.9904868353826792</v>
       </c>
       <c r="D17">
-        <v>1.04377496177689</v>
+        <v>1.014615427306074</v>
       </c>
       <c r="E17">
-        <v>1.044670152180366</v>
+        <v>1.008228413503075</v>
       </c>
       <c r="F17">
-        <v>1.054979392769639</v>
+        <v>1.017014735859177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035145762030099</v>
+        <v>1.041915629619816</v>
       </c>
       <c r="J17">
-        <v>1.042048396119767</v>
+        <v>1.01831556379453</v>
       </c>
       <c r="K17">
-        <v>1.047113928260277</v>
+        <v>1.028371957793277</v>
       </c>
       <c r="L17">
-        <v>1.048006052720761</v>
+        <v>1.022093690784811</v>
       </c>
       <c r="M17">
-        <v>1.058280397032999</v>
+        <v>1.030730870172488</v>
       </c>
       <c r="N17">
-        <v>1.043528224366879</v>
+        <v>1.019761688697546</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036093667815484</v>
+        <v>0.9916520421480266</v>
       </c>
       <c r="D18">
-        <v>1.043952066323058</v>
+        <v>1.015493126888281</v>
       </c>
       <c r="E18">
-        <v>1.044870542940436</v>
+        <v>1.009186676062799</v>
       </c>
       <c r="F18">
-        <v>1.055195274764312</v>
+        <v>1.018047270989069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03518323754453</v>
+        <v>1.04218852068909</v>
       </c>
       <c r="J18">
-        <v>1.042195746155598</v>
+        <v>1.019034177697123</v>
       </c>
       <c r="K18">
-        <v>1.047248882910817</v>
+        <v>1.029049682316351</v>
       </c>
       <c r="L18">
-        <v>1.048164256599525</v>
+        <v>1.022848697522054</v>
       </c>
       <c r="M18">
-        <v>1.058454515776056</v>
+        <v>1.031561590453714</v>
       </c>
       <c r="N18">
-        <v>1.043675783656661</v>
+        <v>1.020481323114307</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036171343710045</v>
+        <v>0.9920478087419351</v>
       </c>
       <c r="D19">
-        <v>1.044012459890654</v>
+        <v>1.01579132012744</v>
       </c>
       <c r="E19">
-        <v>1.044938887714421</v>
+        <v>1.009512304586718</v>
       </c>
       <c r="F19">
-        <v>1.055268901778383</v>
+        <v>1.018398125107606</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035195990325728</v>
+        <v>1.042281012250002</v>
       </c>
       <c r="J19">
-        <v>1.042245987638139</v>
+        <v>1.019278237404469</v>
       </c>
       <c r="K19">
-        <v>1.04729489113397</v>
+        <v>1.029279818014917</v>
       </c>
       <c r="L19">
-        <v>1.048218203872003</v>
+        <v>1.023105165048578</v>
       </c>
       <c r="M19">
-        <v>1.058513890011096</v>
+        <v>1.031843781718258</v>
       </c>
       <c r="N19">
-        <v>1.043726096487871</v>
+        <v>1.020725729414432</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035824001529892</v>
+        <v>0.9902717682429361</v>
       </c>
       <c r="D20">
-        <v>1.043742387344296</v>
+        <v>1.014453465087272</v>
       </c>
       <c r="E20">
-        <v>1.044633299743653</v>
+        <v>1.008051615519277</v>
       </c>
       <c r="F20">
-        <v>1.054939690898694</v>
+        <v>1.016824228467475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035138856638073</v>
+        <v>1.04186516757774</v>
       </c>
       <c r="J20">
-        <v>1.042021291685913</v>
+        <v>1.018182917018435</v>
       </c>
       <c r="K20">
-        <v>1.047089100659777</v>
+        <v>1.028246841220603</v>
       </c>
       <c r="L20">
-        <v>1.047976954135426</v>
+        <v>1.021954349211842</v>
       </c>
       <c r="M20">
-        <v>1.058248371221308</v>
+        <v>1.030577557421439</v>
       </c>
       <c r="N20">
-        <v>1.043501081441619</v>
+        <v>1.019628853547815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034695510660037</v>
+        <v>0.9843875010846156</v>
       </c>
       <c r="D21">
-        <v>1.042864741518164</v>
+        <v>1.010026964065291</v>
       </c>
       <c r="E21">
-        <v>1.043640966207039</v>
+        <v>1.003223132680763</v>
       </c>
       <c r="F21">
-        <v>1.053870566239321</v>
+        <v>1.011620601023622</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034951351425102</v>
+        <v>1.040473802519478</v>
       </c>
       <c r="J21">
-        <v>1.041290712671793</v>
+        <v>1.014552794534666</v>
       </c>
       <c r="K21">
-        <v>1.046419517752819</v>
+        <v>1.024820830402872</v>
       </c>
       <c r="L21">
-        <v>1.04719289787879</v>
+        <v>1.018143698037462</v>
       </c>
       <c r="M21">
-        <v>1.05738544257504</v>
+        <v>1.026385112024579</v>
       </c>
       <c r="N21">
-        <v>1.042769464921501</v>
+        <v>1.015993575873737</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033986563411151</v>
+        <v>0.9805989690912787</v>
       </c>
       <c r="D22">
-        <v>1.042313233149078</v>
+        <v>1.007182117220605</v>
       </c>
       <c r="E22">
-        <v>1.043017943805545</v>
+        <v>1.000123228577264</v>
       </c>
       <c r="F22">
-        <v>1.053199269613719</v>
+        <v>1.008279135880899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034832114269901</v>
+        <v>1.039567796332386</v>
       </c>
       <c r="J22">
-        <v>1.040831318586783</v>
+        <v>1.01221495857997</v>
       </c>
       <c r="K22">
-        <v>1.045998116673392</v>
+        <v>1.022612625131065</v>
       </c>
       <c r="L22">
-        <v>1.046700142258775</v>
+        <v>1.015692244680695</v>
       </c>
       <c r="M22">
-        <v>1.056843119395739</v>
+        <v>1.023688346505256</v>
       </c>
       <c r="N22">
-        <v>1.042309418444198</v>
+        <v>1.013652419923832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034362334597838</v>
+        <v>0.9826160597246393</v>
       </c>
       <c r="D23">
-        <v>1.042605569091199</v>
+        <v>1.00869625681101</v>
       </c>
       <c r="E23">
-        <v>1.043348134346576</v>
+        <v>1.001772818063757</v>
       </c>
       <c r="F23">
-        <v>1.053555050511741</v>
+        <v>1.010057338034357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034895451494989</v>
+        <v>1.040051111003668</v>
       </c>
       <c r="J23">
-        <v>1.041074856558505</v>
+        <v>1.013459708052407</v>
       </c>
       <c r="K23">
-        <v>1.046221547696714</v>
+        <v>1.023788518198327</v>
       </c>
       <c r="L23">
-        <v>1.0469613409655</v>
+        <v>1.016997237396992</v>
       </c>
       <c r="M23">
-        <v>1.057130592613021</v>
+        <v>1.025123896851345</v>
       </c>
       <c r="N23">
-        <v>1.042553302267773</v>
+        <v>1.014898937083295</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035842930611487</v>
+        <v>0.9903689762453964</v>
       </c>
       <c r="D24">
-        <v>1.043757106227571</v>
+        <v>1.014526668749612</v>
       </c>
       <c r="E24">
-        <v>1.044649951468684</v>
+        <v>1.008131523481481</v>
       </c>
       <c r="F24">
-        <v>1.054957630158011</v>
+        <v>1.016910332954815</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035141977349981</v>
+        <v>1.041887979441333</v>
       </c>
       <c r="J24">
-        <v>1.042033539032001</v>
+        <v>1.018242872256209</v>
       </c>
       <c r="K24">
-        <v>1.047100319325851</v>
+        <v>1.028303393534069</v>
       </c>
       <c r="L24">
-        <v>1.047990102463244</v>
+        <v>1.022017329564733</v>
       </c>
       <c r="M24">
-        <v>1.058262842229275</v>
+        <v>1.030646852454481</v>
       </c>
       <c r="N24">
-        <v>1.043513346180344</v>
+        <v>1.019688893928903</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03756358325987</v>
+        <v>0.9990067582693215</v>
       </c>
       <c r="D25">
-        <v>1.045094675847541</v>
+        <v>1.021040908281634</v>
       </c>
       <c r="E25">
-        <v>1.046164504772883</v>
+        <v>1.015250602910857</v>
       </c>
       <c r="F25">
-        <v>1.056589142903641</v>
+        <v>1.024579830156623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035422183920451</v>
+        <v>1.043889978063476</v>
       </c>
       <c r="J25">
-        <v>1.043145791525238</v>
+        <v>1.023567595257865</v>
       </c>
       <c r="K25">
-        <v>1.048118278277778</v>
+        <v>1.033321141608319</v>
       </c>
       <c r="L25">
-        <v>1.049184813693903</v>
+        <v>1.027616697552304</v>
       </c>
       <c r="M25">
-        <v>1.059577739803832</v>
+        <v>1.036808192974971</v>
       </c>
       <c r="N25">
-        <v>1.044627178199698</v>
+        <v>1.025021178647975</v>
       </c>
     </row>
   </sheetData>
